--- a/handle/sea/operate_log_all.xlsx
+++ b/handle/sea/operate_log_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="day_complete" sheetId="1" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>B_DATE</t>
   </si>
@@ -2145,7 +2145,7 @@
     <t>一直小波动下行，以为跌不了多少却一直阴跌，是近期最大亏损</t>
   </si>
   <si>
-    <t>LMKE</t>
+    <t>LMKJ</t>
   </si>
   <si>
     <t>YZMY</t>
@@ -2202,13 +2202,13 @@
     <t>ZKCD</t>
   </si>
   <si>
-    <t>PAYH</t>
+    <t>PAYX</t>
   </si>
   <si>
     <t>SHZK</t>
   </si>
   <si>
-    <t>ARYK</t>
+    <t>AEYK</t>
   </si>
   <si>
     <t>FHCM</t>
@@ -2307,7 +2307,7 @@
     <t>YST</t>
   </si>
   <si>
-    <t>PNCE</t>
+    <t>PNCS</t>
   </si>
   <si>
     <t>JSJD</t>
@@ -2316,10 +2316,10 @@
     <t>SQJT</t>
   </si>
   <si>
-    <t>CCQC</t>
-  </si>
-  <si>
-    <t>CYJM</t>
+    <t>ZCQC</t>
+  </si>
+  <si>
+    <t>ZYJM</t>
   </si>
   <si>
     <t>JDGF</t>
@@ -2384,14 +2384,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2415,14 +2415,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2437,15 +2429,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2460,39 +2468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2507,15 +2485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2529,7 +2499,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2538,21 +2522,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2564,25 +2553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2600,7 +2583,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2612,13 +2613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2630,7 +2631,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,49 +2709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,55 +2721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2760,38 +2749,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2811,17 +2771,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2841,17 +2830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2860,148 +2849,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3027,54 +3016,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3370,15 +3359,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -4205,7 +4194,7 @@
         <v>4.35</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K73" si="7">DATEDIF(A22,B22,"d")</f>
+        <f t="shared" ref="K22:K84" si="7">DATEDIF(A22,B22,"d")</f>
         <v>15</v>
       </c>
     </row>
@@ -4906,7 +4895,7 @@
         <v>36.44</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G73" si="11">I40+E40</f>
+        <f t="shared" ref="G40:G84" si="11">I40+E40</f>
         <v>54504.18</v>
       </c>
       <c r="H40">
@@ -5930,7 +5919,7 @@
         <v>-1090</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J73" si="13">ROUND(I66/E66*100,2)</f>
+        <f t="shared" ref="J66:J84" si="13">ROUND(I66/E66*100,2)</f>
         <v>-4.24</v>
       </c>
       <c r="K66">
@@ -6232,7 +6221,7 @@
         <v>57.3</v>
       </c>
       <c r="G74">
-        <f>I74+E74</f>
+        <f t="shared" si="11"/>
         <v>50418.65</v>
       </c>
       <c r="H74">
@@ -6242,11 +6231,11 @@
         <v>-3455.35</v>
       </c>
       <c r="J74">
-        <f>ROUND(I74/E74*100,2)</f>
+        <f t="shared" si="13"/>
         <v>-6.41</v>
       </c>
       <c r="K74">
-        <f>DATEDIF(A74,B74,"d")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -6271,7 +6260,7 @@
         <v>242.03</v>
       </c>
       <c r="G75">
-        <f>I75+E75</f>
+        <f t="shared" si="11"/>
         <v>48318.65</v>
       </c>
       <c r="H75">
@@ -6281,11 +6270,11 @@
         <v>1840.65</v>
       </c>
       <c r="J75">
-        <f>ROUND(I75/E75*100,2)</f>
+        <f t="shared" si="13"/>
         <v>3.96</v>
       </c>
       <c r="K75">
-        <f>DATEDIF(A75,B75,"d")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -6310,7 +6299,7 @@
         <v>453.37</v>
       </c>
       <c r="G76">
-        <f>I76+E76</f>
+        <f t="shared" si="11"/>
         <v>45186.99</v>
       </c>
       <c r="H76">
@@ -6320,11 +6309,11 @@
         <v>1601.99</v>
       </c>
       <c r="J76">
-        <f>ROUND(I76/E76*100,2)</f>
+        <f t="shared" si="13"/>
         <v>3.68</v>
       </c>
       <c r="K76">
-        <f>DATEDIF(A76,B76,"d")</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -6349,7 +6338,7 @@
         <v>106.86</v>
       </c>
       <c r="G77">
-        <f>I77+E77</f>
+        <f t="shared" si="11"/>
         <v>53415.08</v>
       </c>
       <c r="H77">
@@ -6359,11 +6348,11 @@
         <v>-289.92</v>
       </c>
       <c r="J77">
-        <f>ROUND(I77/E77*100,2)</f>
+        <f t="shared" si="13"/>
         <v>-0.54</v>
       </c>
       <c r="K77">
-        <f>DATEDIF(A77,B77,"d")</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -6388,7 +6377,7 @@
         <v>317.14</v>
       </c>
       <c r="G78">
-        <f>I78+E78</f>
+        <f t="shared" si="11"/>
         <v>66917.54</v>
       </c>
       <c r="H78">
@@ -6398,11 +6387,11 @@
         <v>27.54</v>
       </c>
       <c r="J78">
-        <f>ROUND(I78/E78*100,2)</f>
+        <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
       <c r="K78">
-        <f>DATEDIF(A78,B78,"d")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -6427,7 +6416,7 @@
         <v>25.15</v>
       </c>
       <c r="G79">
-        <f>I79+E79</f>
+        <f t="shared" si="11"/>
         <v>54941.67</v>
       </c>
       <c r="H79">
@@ -6437,11 +6426,11 @@
         <v>2867.67</v>
       </c>
       <c r="J79">
-        <f>ROUND(I79/E79*100,2)</f>
+        <f t="shared" si="13"/>
         <v>5.51</v>
       </c>
       <c r="K79">
-        <f>DATEDIF(A79,B79,"d")</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -6466,7 +6455,7 @@
         <v>14.69</v>
       </c>
       <c r="G80">
-        <f>I80+E80</f>
+        <f t="shared" si="11"/>
         <v>66008</v>
       </c>
       <c r="H80">
@@ -6476,11 +6465,11 @@
         <v>14933</v>
       </c>
       <c r="J80">
-        <f>ROUND(I80/E80*100,2)</f>
+        <f t="shared" si="13"/>
         <v>29.24</v>
       </c>
       <c r="K80">
-        <f>DATEDIF(A80,B80,"d")</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -6505,7 +6494,7 @@
         <v>62.17</v>
       </c>
       <c r="G81">
-        <f>I81+E81</f>
+        <f t="shared" si="11"/>
         <v>48665.21</v>
       </c>
       <c r="H81">
@@ -6515,11 +6504,11 @@
         <v>-2886.79</v>
       </c>
       <c r="J81">
-        <f>ROUND(I81/E81*100,2)</f>
+        <f t="shared" si="13"/>
         <v>-5.6</v>
       </c>
       <c r="K81">
-        <f>DATEDIF(A81,B81,"d")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -6544,7 +6533,7 @@
         <v>32.4</v>
       </c>
       <c r="G82">
-        <f>I82+E82</f>
+        <f t="shared" si="11"/>
         <v>52605.03</v>
       </c>
       <c r="H82">
@@ -6554,11 +6543,11 @@
         <v>1165.03</v>
       </c>
       <c r="J82">
-        <f>ROUND(I82/E82*100,2)</f>
+        <f t="shared" si="13"/>
         <v>2.26</v>
       </c>
       <c r="K82">
-        <f>DATEDIF(A82,B82,"d")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -6583,7 +6572,7 @@
         <v>288.38</v>
       </c>
       <c r="G83">
-        <f>I83+E83</f>
+        <f t="shared" si="11"/>
         <v>57583.17</v>
       </c>
       <c r="H83">
@@ -6593,11 +6582,11 @@
         <v>771.17</v>
       </c>
       <c r="J83">
-        <f>ROUND(I83/E83*100,2)</f>
+        <f t="shared" si="13"/>
         <v>1.36</v>
       </c>
       <c r="K83">
-        <f>DATEDIF(A83,B83,"d")</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -6622,7 +6611,7 @@
         <v>166.4</v>
       </c>
       <c r="G84">
-        <f>I84+E84</f>
+        <f t="shared" si="11"/>
         <v>65557.1</v>
       </c>
       <c r="H84">
@@ -6632,16 +6621,16 @@
         <v>-1798.9</v>
       </c>
       <c r="J84">
-        <f>ROUND(I84/E84*100,2)</f>
+        <f t="shared" si="13"/>
         <v>-2.67</v>
       </c>
       <c r="K84">
-        <f>DATEDIF(A84,B84,"d")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -6649,15 +6638,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="10.375"/>
@@ -6713,7 +6702,7 @@
         <v>171.85</v>
       </c>
       <c r="E2">
-        <f>D2*H2</f>
+        <f t="shared" ref="E2:E7" si="0">D2*H2</f>
         <v>51555</v>
       </c>
       <c r="H2">
@@ -6731,7 +6720,7 @@
         <v>39.44</v>
       </c>
       <c r="E3">
-        <f>D3*H3</f>
+        <f t="shared" si="0"/>
         <v>47328</v>
       </c>
       <c r="H3">
@@ -6749,7 +6738,7 @@
         <v>340.85</v>
       </c>
       <c r="E4">
-        <f>D4*H4</f>
+        <f t="shared" si="0"/>
         <v>68170</v>
       </c>
       <c r="H4">
@@ -6767,7 +6756,7 @@
         <v>25.01</v>
       </c>
       <c r="E5">
-        <f>D5*H5</f>
+        <f t="shared" si="0"/>
         <v>50020</v>
       </c>
       <c r="H5">
@@ -6785,7 +6774,7 @@
         <v>18.01</v>
       </c>
       <c r="E6">
-        <f>D6*H6</f>
+        <f t="shared" si="0"/>
         <v>37821</v>
       </c>
       <c r="H6">
@@ -6803,7 +6792,7 @@
         <v>50.84</v>
       </c>
       <c r="E7">
-        <f>D7*H7</f>
+        <f t="shared" si="0"/>
         <v>30504</v>
       </c>
       <c r="H7">
@@ -7064,7 +7053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -7072,16 +7061,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -7089,16 +7078,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -7106,7 +7095,7 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
